--- a/GA_Parameters/Coordinates.xlsx
+++ b/GA_Parameters/Coordinates.xlsx
@@ -6,9 +6,9 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="pop50" sheetId="2" r:id="rId3"/>
-    <sheet name="Spop50" sheetId="3" r:id="rId4"/>
-    <sheet name="Tpop50" sheetId="4" r:id="rId5"/>
+    <sheet name="Fpop" sheetId="2" r:id="rId3"/>
+    <sheet name="Spop" sheetId="3" r:id="rId4"/>
+    <sheet name="Tpop" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -65,82 +65,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B8" s="0">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B10" s="0">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -148,319 +148,319 @@
         <v>33</v>
       </c>
       <c r="B11" s="0">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B12" s="0">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B13" s="0">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B17" s="0">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B18" s="0">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B20" s="0">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B21" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
+        <v>39</v>
+      </c>
+      <c r="B22" s="0">
         <v>40</v>
-      </c>
-      <c r="B22" s="0">
-        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B23" s="0">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B25" s="0">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B26" s="0">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B27" s="0">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B28" s="0">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B29" s="0">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B30" s="0">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B31" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B32" s="0">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B33" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B34" s="0">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B35" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B36" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B37" s="0">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B38" s="0">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B39" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B40" s="0">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B41" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B42" s="0">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
+        <v>46</v>
+      </c>
+      <c r="B43" s="0">
         <v>15</v>
-      </c>
-      <c r="B43" s="0">
-        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B44" s="0">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B45" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
+        <v>4</v>
+      </c>
+      <c r="B46" s="0">
         <v>3</v>
-      </c>
-      <c r="B46" s="0">
-        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B47" s="0">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B48" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B49" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B50" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -478,287 +478,287 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B10" s="0">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B13" s="0">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B14" s="0">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B15" s="0">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B17" s="0">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B18" s="0">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" s="0">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
+        <v>28</v>
+      </c>
+      <c r="B20" s="0">
         <v>8</v>
-      </c>
-      <c r="B20" s="0">
-        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B21" s="0">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B22" s="0">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B23" s="0">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B24" s="0">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B25" s="0">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B26" s="0">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B27" s="0">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B28" s="0">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B29" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B30" s="0">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B32" s="0">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B33" s="0">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="0">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B35" s="0">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B36" s="0">
         <v>18</v>
@@ -766,114 +766,114 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B38" s="0">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B39" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B40" s="0">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B41" s="0">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B42" s="0">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B43" s="0">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B44" s="0">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B45" s="0">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B47" s="0">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B48" s="0">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B49" s="0">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B50" s="0">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -891,178 +891,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="0">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
+        <v>44</v>
+      </c>
+      <c r="B4" s="0">
         <v>28</v>
-      </c>
-      <c r="B4" s="0">
-        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B5" s="0">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B8" s="0">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B13" s="0">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0">
         <v>21</v>
-      </c>
-      <c r="B15" s="0">
-        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" s="0">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18" s="0">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B19" s="0">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B20" s="0">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B21" s="0">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1070,204 +1070,204 @@
         <v>47</v>
       </c>
       <c r="B23" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B24" s="0">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B25" s="0">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B26" s="0">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B27" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B28" s="0">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B29" s="0">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B30" s="0">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B32" s="0">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B33" s="0">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B34" s="0">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B35" s="0">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36" s="0">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B37" s="0">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B38" s="0">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
+        <v>45</v>
+      </c>
+      <c r="B39" s="0">
         <v>17</v>
-      </c>
-      <c r="B39" s="0">
-        <v>41</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B40" s="0">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B41" s="0">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B42" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B43" s="0">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B44" s="0">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B45" s="0">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
+        <v>10</v>
+      </c>
+      <c r="B46" s="0">
         <v>12</v>
-      </c>
-      <c r="B46" s="0">
-        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B47" s="0">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B48" s="0">
         <v>9</v>
@@ -1275,18 +1275,18 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B49" s="0">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B50" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
